--- a/database/industries/ghaza/ghevita/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghevita/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghevita\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF014F1A-92A1-447E-BE79-F45944E381F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غویتا-ویتانا</t>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,7 +441,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -452,7 +453,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -499,6 +500,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -534,6 +552,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,17 +720,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -705,7 +740,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,7 +752,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,7 +764,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -739,7 +774,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -751,7 +786,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -763,7 +798,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -773,7 +808,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -795,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -805,7 +840,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -827,7 +862,7 @@
         <v>1941998</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -849,7 +884,7 @@
         <v>192443</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -871,7 +906,7 @@
         <v>296505</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -893,7 +928,7 @@
         <v>2430946</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -915,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -937,7 +972,7 @@
         <v>2430946</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -959,7 +994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1038,7 @@
         <v>2430945</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1082,7 @@
         <v>-69932</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1104,7 @@
         <v>2361013</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1126,7 @@
         <v>49570</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1148,7 @@
         <v>2410583</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1123,7 +1158,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1133,7 +1168,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1143,7 +1178,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1175,7 +1210,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1223,7 +1258,7 @@
         <v>255265</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1354,7 @@
         <v>4218537</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1343,7 +1378,7 @@
         <v>52552</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>8940409</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1391,7 +1426,7 @@
         <v>166534</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>1691099</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>68610</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1463,7 +1498,7 @@
         <v>115298</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
@@ -1487,7 +1522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1546,7 @@
         <v>124287</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -1535,7 +1570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>15639765</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1567,7 +1602,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1577,7 +1612,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1587,7 +1622,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1619,7 +1654,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1702,7 @@
         <v>108495</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>30</v>
       </c>
@@ -1715,7 +1750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1774,7 @@
         <v>-13155</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>32</v>
       </c>
@@ -1763,7 +1798,7 @@
         <v>8660768</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1787,7 +1822,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>35</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>17011934</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1870,7 @@
         <v>3405210</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>37</v>
       </c>
@@ -1859,7 +1894,7 @@
         <v>2139085</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>38</v>
       </c>
@@ -1883,7 +1918,7 @@
         <v>30079</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>39</v>
       </c>
@@ -1907,7 +1942,7 @@
         <v>1087745</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>40</v>
       </c>
@@ -1931,7 +1966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>41</v>
       </c>
@@ -1955,7 +1990,7 @@
         <v>1151512</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +2014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>33583473</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2011,7 +2046,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2021,7 +2056,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2031,7 +2066,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>45</v>
       </c>
@@ -2053,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2063,7 +2098,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -2087,7 +2122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>69973</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>28</v>
       </c>
@@ -2135,7 +2170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>30</v>
       </c>
@@ -2159,7 +2194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>31</v>
       </c>
@@ -2183,7 +2218,7 @@
         <v>-12011</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -2207,7 +2242,7 @@
         <v>8928350</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>34</v>
       </c>
@@ -2231,7 +2266,7 @@
         <v>-32807</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>35</v>
       </c>
@@ -2255,7 +2290,7 @@
         <v>17437653</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>36</v>
       </c>
@@ -2279,7 +2314,7 @@
         <v>3364040</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>37</v>
       </c>
@@ -2303,7 +2338,7 @@
         <v>1618812</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>38</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>83686</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>39</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>735206</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>40</v>
       </c>
@@ -2375,7 +2410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>41</v>
       </c>
@@ -2399,7 +2434,7 @@
         <v>1153522</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>42</v>
       </c>
@@ -2423,7 +2458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>33346424</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2455,7 +2490,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2465,7 +2500,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2475,7 +2510,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2497,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2507,7 +2542,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +2590,7 @@
         <v>293787</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2579,7 +2614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>31</v>
       </c>
@@ -2627,7 +2662,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>32</v>
       </c>
@@ -2651,7 +2686,7 @@
         <v>3950955</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>34</v>
       </c>
@@ -2675,7 +2710,7 @@
         <v>87159</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>35</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>8514690</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>36</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>207704</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>37</v>
       </c>
@@ -2747,7 +2782,7 @@
         <v>2211372</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>38</v>
       </c>
@@ -2771,7 +2806,7 @@
         <v>15003</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>39</v>
       </c>
@@ -2795,7 +2830,7 @@
         <v>467837</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>40</v>
       </c>
@@ -2819,7 +2854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>41</v>
       </c>
@@ -2843,7 +2878,7 @@
         <v>122277</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>42</v>
       </c>
@@ -2867,7 +2902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +2924,7 @@
         <v>15876814</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2899,7 +2934,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2909,7 +2944,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2919,7 +2954,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>47</v>
       </c>
@@ -2941,7 +2976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2951,7 +2986,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
@@ -2975,7 +3010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -2999,7 +3034,7 @@
         <v>180405</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>28</v>
       </c>
@@ -3023,7 +3058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>30</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3106,7 @@
         <v>33284</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>54436</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>34</v>
       </c>
@@ -3119,7 +3154,7 @@
         <v>35046</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3178,7 @@
         <v>154532</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>36</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>24959</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>37</v>
       </c>
@@ -3191,7 +3226,7 @@
         <v>108075</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>38</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>39</v>
       </c>
@@ -3239,7 +3274,7 @@
         <v>58570</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>40</v>
       </c>
@@ -3263,7 +3298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>41</v>
       </c>
@@ -3287,7 +3322,7 @@
         <v>23274</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>42</v>
       </c>
@@ -3311,7 +3346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>12</v>
       </c>
@@ -3333,7 +3368,7 @@
         <v>714850</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3343,7 +3378,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3353,7 +3388,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3363,7 +3398,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>48</v>
       </c>
@@ -3385,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3395,7 +3430,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>24</v>
       </c>
@@ -3419,7 +3454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>27</v>
       </c>
@@ -3443,7 +3478,7 @@
         <v>111162</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>28</v>
       </c>
@@ -3467,7 +3502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>30</v>
       </c>
@@ -3491,7 +3526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>31</v>
       </c>
@@ -3515,7 +3550,7 @@
         <v>-69834</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>32</v>
       </c>
@@ -3539,7 +3574,7 @@
         <v>83759</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>34</v>
       </c>
@@ -3563,7 +3598,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +3622,7 @@
         <v>1364255</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>36</v>
       </c>
@@ -3611,7 +3646,7 @@
         <v>512855</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>37</v>
       </c>
@@ -3635,7 +3670,7 @@
         <v>120784</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>38</v>
       </c>
@@ -3659,7 +3694,7 @@
         <v>29735</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>39</v>
       </c>
@@ -3683,7 +3718,7 @@
         <v>630976</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>40</v>
       </c>
@@ -3707,7 +3742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>41</v>
       </c>
@@ -3731,7 +3766,7 @@
         <v>212291</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>42</v>
       </c>
@@ -3755,7 +3790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="12" t="s">
         <v>12</v>
       </c>
@@ -3777,7 +3812,7 @@
         <v>2998124</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3787,7 +3822,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3797,7 +3832,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3807,7 +3842,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>49</v>
       </c>
@@ -3829,7 +3864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3839,7 +3874,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>24</v>
       </c>
@@ -3863,7 +3898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>27</v>
       </c>
@@ -3887,7 +3922,7 @@
         <v>74583</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>28</v>
       </c>
@@ -3911,7 +3946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>30</v>
       </c>
@@ -3935,7 +3970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>31</v>
       </c>
@@ -3959,7 +3994,7 @@
         <v>-57861</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>32</v>
       </c>
@@ -3983,7 +4018,7 @@
         <v>84185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>34</v>
       </c>
@@ -4007,7 +4042,7 @@
         <v>-11877</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>35</v>
       </c>
@@ -4031,7 +4066,7 @@
         <v>602306</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>36</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>507008</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>37</v>
       </c>
@@ -4079,7 +4114,7 @@
         <v>102113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>38</v>
       </c>
@@ -4103,7 +4138,7 @@
         <v>57236</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>39</v>
       </c>
@@ -4127,7 +4162,7 @@
         <v>372146</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>40</v>
       </c>
@@ -4151,7 +4186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>41</v>
       </c>
@@ -4175,7 +4210,7 @@
         <v>212159</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>42</v>
       </c>
@@ -4199,7 +4234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="12" t="s">
         <v>12</v>
       </c>
@@ -4221,7 +4256,7 @@
         <v>1941998</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4231,7 +4266,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4241,7 +4276,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4251,7 +4286,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
         <v>50</v>
       </c>
@@ -4273,7 +4308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4283,7 +4318,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>24</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>27</v>
       </c>
@@ -4331,7 +4366,7 @@
         <v>216984</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>28</v>
       </c>
@@ -4355,7 +4390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>30</v>
       </c>
@@ -4379,7 +4414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>31</v>
       </c>
@@ -4403,7 +4438,7 @@
         <v>21311</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>32</v>
       </c>
@@ -4427,7 +4462,7 @@
         <v>54010</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>34</v>
       </c>
@@ -4451,7 +4486,7 @@
         <v>49064</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>35</v>
       </c>
@@ -4475,7 +4510,7 @@
         <v>916480</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>36</v>
       </c>
@@ -4499,7 +4534,7 @@
         <v>30806</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>37</v>
       </c>
@@ -4523,7 +4558,7 @@
         <v>126746</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>38</v>
       </c>
@@ -4547,7 +4582,7 @@
         <v>14768</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>39</v>
       </c>
@@ -4571,7 +4606,7 @@
         <v>317400</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>40</v>
       </c>
@@ -4595,7 +4630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>41</v>
       </c>
@@ -4619,7 +4654,7 @@
         <v>23406</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>42</v>
       </c>
@@ -4643,7 +4678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="12" t="s">
         <v>12</v>
       </c>
@@ -4665,7 +4700,7 @@
         <v>1770975</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4675,7 +4710,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4685,7 +4720,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4695,7 +4730,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>51</v>
       </c>
@@ -4717,7 +4752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4727,7 +4762,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>24</v>
       </c>
@@ -4751,7 +4786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>27</v>
       </c>
@@ -4775,7 +4810,7 @@
         <v>706736</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>30</v>
       </c>
@@ -4799,7 +4834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>31</v>
       </c>
@@ -4823,7 +4858,7 @@
         <v>4639532</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>32</v>
       </c>
@@ -4847,7 +4882,7 @@
         <v>12904</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>34</v>
       </c>
@@ -4871,7 +4906,7 @@
         <v>666882</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>35</v>
       </c>
@@ -4895,7 +4930,7 @@
         <v>17285</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>36</v>
       </c>
@@ -4919,7 +4954,7 @@
         <v>149873</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>37</v>
       </c>
@@ -4943,7 +4978,7 @@
         <v>63908</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>38</v>
       </c>
@@ -4967,7 +5002,7 @@
         <v>616076</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>39</v>
       </c>
@@ -4991,7 +5026,7 @@
         <v>507988</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>41</v>
       </c>
@@ -5015,7 +5050,7 @@
         <v>187260</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>42</v>
       </c>
@@ -5039,7 +5074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -5049,7 +5084,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -5059,7 +5094,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -5069,7 +5104,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B213" s="7" t="s">
         <v>54</v>
       </c>
@@ -5091,7 +5126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -5101,7 +5136,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>24</v>
       </c>
@@ -5125,7 +5160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>27</v>
       </c>
@@ -5149,7 +5184,7 @@
         <v>1024582</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>30</v>
       </c>
@@ -5173,7 +5208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>31</v>
       </c>
@@ -5197,7 +5232,7 @@
         <v>5308552</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>32</v>
       </c>
@@ -5221,7 +5256,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>34</v>
       </c>
@@ -5245,7 +5280,7 @@
         <v>1189444</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>35</v>
       </c>
@@ -5269,7 +5304,7 @@
         <v>80194</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>36</v>
       </c>
@@ -5293,7 +5328,7 @@
         <v>150609</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>37</v>
       </c>
@@ -5317,7 +5352,7 @@
         <v>56465</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>38</v>
       </c>
@@ -5341,7 +5376,7 @@
         <v>988563</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>39</v>
       </c>
@@ -5365,7 +5400,7 @@
         <v>580077</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>41</v>
       </c>
@@ -5389,7 +5424,7 @@
         <v>184358</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" s="8" t="s">
         <v>42</v>
       </c>
@@ -5413,7 +5448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5423,7 +5458,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -5433,7 +5468,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -5443,7 +5478,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B231" s="7" t="s">
         <v>55</v>
       </c>
@@ -5465,7 +5500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -5475,7 +5510,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>24</v>
       </c>
@@ -5499,7 +5534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="10" t="s">
         <v>27</v>
       </c>
@@ -5523,7 +5558,7 @@
         <v>1065883</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="8" t="s">
         <v>30</v>
       </c>
@@ -5547,7 +5582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="10" t="s">
         <v>31</v>
       </c>
@@ -5571,7 +5606,7 @@
         <v>4817334</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="8" t="s">
         <v>32</v>
       </c>
@@ -5595,7 +5630,7 @@
         <v>9429</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="10" t="s">
         <v>34</v>
       </c>
@@ -5619,7 +5654,7 @@
         <v>362026</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>35</v>
       </c>
@@ -5643,7 +5678,7 @@
         <v>34541</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="10" t="s">
         <v>36</v>
       </c>
@@ -5667,7 +5702,7 @@
         <v>150714</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>37</v>
       </c>
@@ -5691,7 +5726,7 @@
         <v>63079</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>38</v>
       </c>
@@ -5715,7 +5750,7 @@
         <v>683938</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
         <v>39</v>
       </c>
@@ -5739,7 +5774,7 @@
         <v>506179</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
         <v>41</v>
       </c>
@@ -5763,7 +5798,7 @@
         <v>183923</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>42</v>
       </c>
@@ -5787,7 +5822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -5797,7 +5832,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -5807,7 +5842,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -5817,7 +5852,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B249" s="7" t="s">
         <v>56</v>
       </c>
@@ -5839,7 +5874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -5849,7 +5884,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B251" s="8" t="s">
         <v>24</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B252" s="10" t="s">
         <v>27</v>
       </c>
@@ -5897,7 +5932,7 @@
         <v>738576</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B253" s="8" t="s">
         <v>30</v>
       </c>
@@ -5921,7 +5956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B254" s="10" t="s">
         <v>31</v>
       </c>
@@ -5945,7 +5980,7 @@
         <v>3534163</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B255" s="8" t="s">
         <v>32</v>
       </c>
@@ -5969,7 +6004,7 @@
         <v>13670</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B256" s="10" t="s">
         <v>34</v>
       </c>
@@ -5993,7 +6028,7 @@
         <v>562925</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B257" s="8" t="s">
         <v>35</v>
       </c>
@@ -6017,7 +6052,7 @@
         <v>107635</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B258" s="10" t="s">
         <v>36</v>
       </c>
@@ -6041,7 +6076,7 @@
         <v>148317</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B259" s="8" t="s">
         <v>37</v>
       </c>
@@ -6065,7 +6100,7 @@
         <v>57316</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B260" s="10" t="s">
         <v>38</v>
       </c>
@@ -6089,7 +6124,7 @@
         <v>984336</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B261" s="8" t="s">
         <v>39</v>
       </c>
@@ -6113,7 +6148,7 @@
         <v>678441</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B262" s="10" t="s">
         <v>41</v>
       </c>
@@ -6137,7 +6172,7 @@
         <v>191418</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B263" s="8" t="s">
         <v>42</v>
       </c>
@@ -6161,7 +6196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -6171,7 +6206,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -6181,7 +6216,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -6191,7 +6226,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B267" s="7" t="s">
         <v>57</v>
       </c>
@@ -6213,7 +6248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -6223,7 +6258,7 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B269" s="8" t="s">
         <v>58</v>
       </c>
@@ -6245,7 +6280,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B270" s="10" t="s">
         <v>59</v>
       </c>
@@ -6267,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B271" s="8" t="s">
         <v>60</v>
       </c>
@@ -6289,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B272" s="10" t="s">
         <v>61</v>
       </c>
@@ -6311,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B273" s="8" t="s">
         <v>62</v>
       </c>
@@ -6333,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B274" s="10" t="s">
         <v>63</v>
       </c>
@@ -6355,7 +6390,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B275" s="8" t="s">
         <v>64</v>
       </c>
@@ -6377,7 +6412,7 @@
         <v>94179</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B276" s="10" t="s">
         <v>65</v>
       </c>
@@ -6399,7 +6434,7 @@
         <v>115668</v>
       </c>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B277" s="8" t="s">
         <v>66</v>
       </c>
@@ -6421,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B278" s="10" t="s">
         <v>67</v>
       </c>
@@ -6443,7 +6478,7 @@
         <v>72802</v>
       </c>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B279" s="14" t="s">
         <v>12</v>
       </c>
@@ -6465,7 +6500,7 @@
         <v>296505</v>
       </c>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -6475,7 +6510,7 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -6485,7 +6520,7 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -6495,7 +6530,7 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B283" s="7" t="s">
         <v>68</v>
       </c>
@@ -6507,7 +6542,7 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B285" s="8" t="s">
         <v>69</v>
       </c>
@@ -6518,7 +6553,7 @@
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B286" s="10" t="s">
         <v>71</v>
       </c>
@@ -6529,7 +6564,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B287" s="8" t="s">
         <v>73</v>
       </c>
@@ -6540,7 +6575,7 @@
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B288" s="10" t="s">
         <v>75</v>
       </c>
@@ -6551,7 +6586,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="8" t="s">
         <v>76</v>
       </c>
@@ -6562,7 +6597,7 @@
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="10" t="s">
         <v>77</v>
       </c>
@@ -6573,7 +6608,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="8" t="s">
         <v>78</v>
       </c>
@@ -6584,7 +6619,7 @@
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="10" t="s">
         <v>79</v>
       </c>
@@ -6595,7 +6630,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="8" t="s">
         <v>80</v>
       </c>
@@ -6606,7 +6641,7 @@
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="10" t="s">
         <v>81</v>
       </c>
